--- a/liste_dossierAPIDGP.xlsx
+++ b/liste_dossierAPIDGP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexis_breton\Documents\Python Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD2638A-D201-450A-9053-4DFACEA66240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52B2079-4183-4245-B4BD-A93C8A13A409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2419,17 +2419,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="I295" sqref="I295"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="47.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>76</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>85</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>87</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>89</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>91</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>98</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>100</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>102</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>104</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>106</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>108</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>110</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>112</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>114</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>116</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>118</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>120</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>122</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>124</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>126</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>128</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>130</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>132</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>134</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>136</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>138</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>140</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>142</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>144</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>146</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>148</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>150</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>152</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>154</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>156</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>158</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>160</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>162</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>164</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>166</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>168</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>170</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>172</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>174</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>176</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>178</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>180</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>182</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>184</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>186</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>188</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>190</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>192</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>194</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>196</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>198</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>200</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>202</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>204</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>206</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>208</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>210</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>212</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>214</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>216</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>218</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>220</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>222</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>224</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>226</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>228</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>230</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>232</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>234</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>236</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>238</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>240</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>242</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>244</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>245</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>246</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>248</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>250</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>252</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
         <v>254</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>256</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>258</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>260</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>262</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>264</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>266</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>267</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>269</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>270</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>271</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>273</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>274</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>275</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>277</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>279</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>280</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>282</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>283</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>284</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>285</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>287</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>288</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>289</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>291</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>292</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>294</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>296</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>298</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>300</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>302</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>303</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>305</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>307</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>309</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>311</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>313</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>315</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>317</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>319</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>321</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>323</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>325</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>327</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>328</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>330</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>332</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>334</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>336</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>338</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>340</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>341</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>343</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>345</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>347</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>349</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
         <v>350</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>352</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>354</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
         <v>356</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
         <v>358</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
         <v>360</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
         <v>362</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
         <v>364</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
         <v>366</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>368</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>370</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>372</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>373</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>374</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>376</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>378</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>379</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>381</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>383</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>385</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>386</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>388</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>390</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>392</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>394</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>396</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>397</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
         <v>399</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>401</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>403</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>405</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>407</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>409</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>411</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>413</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>415</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>417</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>419</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>420</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
         <v>422</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>424</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>426</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>428</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>430</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>432</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>434</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>436</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>438</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>440</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>442</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>444</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>446</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
         <v>448</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>450</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>452</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>454</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
         <v>456</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>458</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
         <v>460</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
         <v>462</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
         <v>464</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
         <v>466</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
         <v>468</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
         <v>470</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
         <v>472</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
         <v>474</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
         <v>476</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
         <v>478</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
         <v>480</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
         <v>482</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
         <v>484</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
         <v>485</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
         <v>487</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
         <v>489</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
         <v>491</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
         <v>493</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
         <v>495</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
         <v>497</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
         <v>499</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
         <v>501</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
         <v>503</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
         <v>505</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
         <v>507</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
         <v>509</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
         <v>511</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
         <v>513</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
         <v>515</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
         <v>517</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
         <v>519</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
         <v>521</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
         <v>523</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
         <v>525</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
         <v>527</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
         <v>529</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
         <v>531</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
         <v>533</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="s">
         <v>535</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
         <v>537</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
         <v>539</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
         <v>541</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
         <v>543</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
         <v>545</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
         <v>547</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="s">
         <v>549</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
         <v>551</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
         <v>553</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
         <v>555</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
         <v>557</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
         <v>559</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299" s="4" t="s">
         <v>561</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
         <v>562</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="s">
         <v>564</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="s">
         <v>566</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
         <v>568</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
         <v>570</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="s">
         <v>572</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="s">
         <v>574</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A307" s="4" t="s">
         <v>576</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
         <v>578</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A309" s="4" t="s">
         <v>580</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="s">
         <v>582</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="s">
         <v>584</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
         <v>586</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
         <v>588</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
         <v>590</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A315" s="4" t="s">
         <v>592</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="s">
         <v>594</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
         <v>596</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="s">
         <v>598</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A319" s="4" t="s">
         <v>600</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
         <v>602</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
         <v>604</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="s">
         <v>606</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A323" s="4" t="s">
         <v>608</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A324" s="4" t="s">
         <v>610</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A325" s="4" t="s">
         <v>612</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A326" s="4" t="s">
         <v>614</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A327" s="4" t="s">
         <v>616</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A328" s="4" t="s">
         <v>618</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A329" s="4" t="s">
         <v>620</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A330" s="4" t="s">
         <v>622</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A331" s="4" t="s">
         <v>624</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
         <v>626</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A333" s="4" t="s">
         <v>628</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A334" s="5" t="s">
         <v>630</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="335" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
